--- a/mathTransformed/HMPSTT_(2017-10-04)_66_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-10-04)_66_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -479,6 +484,11 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>G H S KanagamakalapalliBagepalli</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Chikkaballapura</t>
         </is>
@@ -507,6 +517,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>N G H S VenkatagirikoteChintamani</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -534,6 +549,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S KadalaveniGauribidanur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -561,6 +581,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H S MuthurSidlaghatta</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -586,7 +611,8 @@
           <t>CHANDRAKALA V</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>K M H P S Chikkaballapura</t>
         </is>
@@ -615,6 +641,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G B H S Bagepally townBagepally</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -642,6 +673,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H P S Poshettihalli</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -669,6 +705,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G H S YelloduGudibande</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -696,6 +737,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G H S TalagavaraCHintamani</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -723,6 +769,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S MelurSidlghatta</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -750,6 +801,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G H S D. PalyaGowribidanur</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -777,6 +833,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G G H S Gudibande</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -804,6 +865,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H S KaiwaraChintamani</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -831,6 +897,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G B H S Gudibande</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -858,6 +929,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H P S Kuduvathi</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -885,6 +961,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Gnanamandira High SchoolGowribidanur</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -910,7 +991,8 @@
           <t>KRISHNAPPA K V</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>G H S Hirekattigenahalli</t>
         </is>
@@ -928,6 +1010,11 @@
         </is>
       </c>
       <c r="F20" t="inlineStr">
+        <is>
+          <t>Chintamani</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Chikkaballapura</t>
         </is>
@@ -956,6 +1043,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H S ChakaveluBagepalli</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -983,6 +1075,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G H S Sidlaghatta</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1010,6 +1107,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S SomenahalliGudibande</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1037,6 +1139,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G G H S Chintamani</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1064,6 +1171,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G H S SanthekallahalliChintamani</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1091,6 +1203,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G H S MylandlahalliChintamani</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1118,6 +1235,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>M G H P S MurugamaleChintamani</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1145,6 +1267,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G H S ChinnasandraChintamani</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1172,6 +1299,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G H S BychapuraGowribidanur</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1199,6 +1331,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G H S M NallagutalahalliBagepalli</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>CHikkaballapura</t>
         </is>
       </c>
@@ -1223,6 +1360,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Govt. High School K RaguttahalliChintamani</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1250,6 +1392,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>S S S S High School ThondebhaviGowribidanur</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1277,6 +1424,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G H P S Haristala</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1304,6 +1456,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Chandana High School ChamdanadoorGauribidanur</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1331,6 +1488,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G H P S Kuppahalli</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1358,6 +1520,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G H S HuduguruGauribidanur</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1385,6 +1552,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G H S AlakapuraGauribidanur</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1412,6 +1584,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>S M H S VidhuraswthaGouribidanur</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1439,6 +1616,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Govt. High School GhantamvaripalliBagepalli</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1466,6 +1648,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>G H S ThmmapalliBagepalli</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1493,6 +1680,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>G H S Sidlghatta</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1520,6 +1712,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>G H S R G Halli</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1547,6 +1744,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>G B H S Bagepalli</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1574,6 +1776,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>G M H P S HossurGowribidanur</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1601,6 +1808,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>G H S MuragamaleChintamani</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1628,6 +1840,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>G H P SChelumenahalli</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1655,6 +1872,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>G H S Sidlaghatta</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1682,6 +1904,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>G H S KundalagurkiSidlagatta</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1709,6 +1936,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>Rural High SchoolBurudugunteChintamani</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1736,6 +1968,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>G H S PalicherluShidlaghatta</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1763,6 +2000,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>G M H P S Peresandra</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1790,6 +2032,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>G H S Ullodu Gudibande</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1817,6 +2064,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>G H S VatadahosahallyGowribidanur</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1844,6 +2096,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>Govt. High School Reddy Gollavarahalli</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1871,6 +2128,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>G H S CheemangalaSidlaghatta taluk</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1898,6 +2160,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>G H S LakshmidevanakoteChintamani</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1925,6 +2192,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>G H P S Koothanahally</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1952,6 +2224,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>G H S BeechaganahalliGudibande</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -1979,6 +2256,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>G H S MachahallyGudibande</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -2006,6 +2288,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>G J C Gudibande</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -2033,6 +2320,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>G H S Melya Gowribidanur</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -2060,6 +2352,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>G H S MittemariBagepalli</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -2087,6 +2384,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>G H S DyavappanagudiShidlghatta</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -2114,6 +2416,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>G B H SGudibande</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -2141,6 +2448,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>S S S S H S ThondebhaviGowribidanuru</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -2168,6 +2480,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>G H P S SonnashettihalliChintamani</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -2195,6 +2512,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>G H S NagergereGauribidanur</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -2222,6 +2544,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>G H S GanjigunteShidlghatta</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>Chikkaballapura</t>
         </is>
       </c>
@@ -2248,6 +2575,11 @@
         </is>
       </c>
       <c r="F69" t="inlineStr">
+        <is>
+          <t>G U U H P S Taiba NagarSidlaghatta</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>Chikkaballapura</t>
         </is>

--- a/mathTransformed/HMPSTT_(2017-10-04)_66_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-10-04)_66_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +490,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,6 @@
           <t>CHANDRAKALA V</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>K M H P S Chikkaballapura</t>
@@ -646,7 +645,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -678,7 +677,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -710,7 +709,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -742,7 +741,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -774,7 +773,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -806,7 +805,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -838,7 +837,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -870,7 +869,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -902,7 +901,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -934,7 +933,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -966,7 +965,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -991,7 +990,6 @@
           <t>KRISHNAPPA K V</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>G H S Hirekattigenahalli</t>
@@ -1016,7 +1014,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1046,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1078,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1110,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1142,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1174,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1208,7 +1206,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1238,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1270,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1302,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1363,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1395,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1427,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1459,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1491,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1523,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1555,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1587,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1619,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1651,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1683,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1715,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1747,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1779,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1811,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1843,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1875,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1907,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1939,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -1973,7 +1971,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2003,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2035,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2067,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2099,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2131,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2163,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2195,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2227,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2259,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2293,7 +2291,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2323,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2355,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2387,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2419,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2451,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2483,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2515,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2547,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2579,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2017-10-04)_66_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-10-04)_66_4.xlsx
@@ -613,7 +613,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>K M H P S Chikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>G H S Hirekattigenahalli</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CHikkaballapura</t>
+          <t>Chikballapur</t>
         </is>
       </c>
     </row>
